--- a/P0086/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0086/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0086\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0086/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B323ED8-93BA-492C-8DC1-02B54A2DFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2B323ED8-93BA-492C-8DC1-02B54A2DFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705544A1-F85B-44E8-999A-0003960AA490}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -98,7 +98,7 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>CIÉNAGA DE AYAPEL: RIQUEZA EN BIODIVERSIDAD Y RECURSOS HÍDRICOS</t>
+    <t>DTSER-112</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0086/02_PRODUCTOS/BANCO DE LA REPÚBLICA\DTSER-112.pdf</t>
@@ -107,46 +107,35 @@
     <t>Banco de la República – Sucursal Cartagena</t>
   </si>
   <si>
-    <t>María M. Aguilera Díaz</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>El documento presenta un análisis exhaustivo de la ciénaga de Ayapel, ubicada en la región de la Depresión Momposina, en el departamento de Córdoba, Colombia. El objetivo principal del estudio es evaluar la riqueza en biodiversidad y los recursos hídricos de la ciénaga, así como identificar los desafíos ambientales y socioeconómicos que enfrenta la región. El contenido del documento se organiza en varias secciones clave: 1). Introducción: se establece el contexto del estudio, resaltando la importancia ecológica y económica de la ciénaga de Ayapel; 2). Antecedentes Históricos: se revisa la evolución histórica de la región, incluyendo aspectos sociales y económicos que han influido en el desarrollo de la ciénaga; 3). Aspectos Geográficos, Ecológicos y Ambientales: esta sección detalla las características geográficas de la ciénaga, así como su biodiversidad, incluyendo flora y fauna. Se abordan problemáticas ambientales como la degradación de los recursos naturales y el uso inadecuado del suelo; 4). Aspectos Sociales: se analiza la población local, el capital humano, las condiciones de vida y la pobreza en la región. Se destacan las interacciones entre la comunidad y los recursos naturales; 5). Usos de Suelo y Actividades Económicas: se examinan los diferentes usos del suelo en la región, incluyendo la agricultura, ganadería, pesca, silvicultura, minería y turismo. Se enfatiza la necesidad de un desarrollo sostenible que integre estas actividades; 6). Reflexiones Finales: se presentan conclusiones sobre la sostenibilidad de la ciénaga y recomendaciones para la implementación de políticas que promuevan la conservación y el uso responsable de los recursos. El estudio se centra en los siete municipios asociados a la Asociación de Municipios del San Jorge (Asosanjorge), que incluye áreas como Ayapel, y se propone un inventario turístico para potenciar el desarrollo económico a través del turismo sostenible. El documento se basa en un enfoque cualitativo y cuantitativo, utilizando datos estadísticos y estudios de campo para evaluar la biodiversidad y los recursos hídricos. Se mencionan colaboraciones con entidades locales y expertos en el área, así como la recopilación de información a través de entrevistas y encuestas a la población local</t>
+    <t>El documento denominado “Ciénaga de Ayapel: Riqueza en Biodiversidad y Recursos Hídricos”, hace parte de la serie de Documentos de Trabajo sobre Economía Regional del Banco de la República, sucursal Cartagena. El objetivo principal de este documento es evaluar la riqueza en biodiversidad y los recursos hídricos de la ciénaga, así como identificar los desafíos ambientales y socioeconómicos que enfrenta la región.</t>
   </si>
   <si>
     <t>Informe</t>
   </si>
   <si>
+    <t>pdf</t>
+  </si>
+  <si>
     <t>El documento presenta un análisis detallado de la ciénaga de Ayapel, resaltando su importancia ecológica, económica y social. Entre los principales resultados se destacan: 1). Biodiversidad: la ciénaga alberga una rica variedad de especies de flora y fauna, que incluyen especies migratorias de peces y aves, lo que la convierte en un ecosistema vital para la región. 2). Recursos Hídricos: se identifica la ciénaga como un regulador clave de los regímenes hidrológicos en las áreas tributarias de los ríos San Jorge y Cauca, contribuyendo a la estabilidad ambiental de la región. 3). Condiciones Socioeconómicas: se observa un bajo nivel educativo y un alto porcentaje de la población con necesidades básicas insatisfechas. La economía local depende en gran medida de la pesca artesanal, la agricultura y la ganadería, aunque estas actividades enfrentan desafíos significativos debido a la degradación ambiental. 4). Problemas Ambientales: se documentan problemas como la deforestación, la contaminación del agua y el manejo inadecuado de los recursos naturales, que amenazan la sostenibilidad del ecosistema. 5). Potencial Turístico: se identifica un alto potencial para el desarrollo del turismo ecológico y cultural, que podría generar ingresos y mejorar las condiciones de vida de la población local. El estudio concluye que, a pesar de la riqueza natural de la ciénaga de Ayapel, su sostenibilidad está en riesgo debido a la degradación de los recursos naturales y las deficientes condiciones sociales de la población. Se enfatiza la necesidad de implementar políticas que promuevan la conservación y el uso sostenible de los recursos. Se recomienda desarrollar campañas educativas para la conservación de ecosistemas críticos; fomentar la integración de actividades económicas rurales y urbanas para promover un desarrollo sostenible; Potenciar el turismo sostenible aprovechando la biodiversidad y la cultura local; Implementar planes de acción que prioricen la restauración de ecosistemas y la mejora de las condiciones de vida de la población</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1. Porcentaje de cobertura de los servicios públicos de energía, acueducto y alcantarillado, de los municipios del Departamento de Córdoba y Colombia 1993 y 2005._x000D_
-Anexo 2. Porcentaje de personas con necesidades básicas insatisfechas, en los municipios del Departamento de Córdoba y Colombia 1993 y 2005. _x000D_
-Anexo 3. Uso del suelo municipio de Ayapel y Departamento de Córdoba, 2006. _x000D_
-Anexo 4. Córdoba. Inventario de ganado bovino por municipios, 2006. _x000D_
-Apéndice _x000D_
-</t>
-  </si>
-  <si>
-    <t>El documento presenta un análisis exhaustivo de la ciénaga de Ayapel, con datos relevantes sobre su biodiversidad, recursos hídricos y condiciones socioeconómicas. Sin embargo, algunos apartados podrían beneficiarse de una mayor profundidad en el análisis, especialmente en la sección de problemáticas ambientales, donde se mencionan desafíos sin ofrecer soluciones concretas o ejemplos de mejores prácticas. La inclusión de gráficos o tablas adicionales podría mejorar la comprensión de ciertos datos, especialmente en las secciones que abordan estadísticas sobre pobreza y servicios públicos. El documento es altamente relevante para la formulación de políticas públicas y estrategias de desarrollo sostenible en la región. Las recomendaciones presentadas son prácticas y alineadas con las necesidades identificadas, lo que puede guiar a los responsables de la toma de decisiones en la implementación de acciones efectivas. Algunos datos, especialmente los relacionados con la cobertura de servicios públicos y condiciones socioeconómicas, son de años anteriores (1993 y 2005). Sería beneficioso incluir información más actualizada para reflejar el estado actual de la región y permitir un análisis más preciso de las tendencias y cambios. Se menciona la necesidad de implementar planes de acción, pero sería útil destacar ejemplos de colaboración exitosa entre diferentes entidades (gubernamentales, ONG, comunidad) que hayan abordado problemas similares en otras regiones.</t>
-  </si>
-  <si>
-    <t>Ciénaga de Ayapel, Biodiversidad, Recursos hídricos, Ecosistema, Sostenibilidad, Turismo ecológico, Agricultura, Ganadería, Pesca artesanal, Degradación ambiental, Educación, Condiciones sociales, Conservación, Desarrollo sostenible, Córdoba, Banco de la República</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta un análisis exhaustivo , con datos relevantes sobre su biodiversidad, recursos hídricos y condiciones socioeconómicas. Sin embargo, algunos apartados podrían beneficiarse de una mayor profundidad en el análisis, especialmente en la sección de problemáticas ambientales, donde se mencionan desafíos sin ofrecer soluciones concretas o ejemplos de mejores prácticas. </t>
+  </si>
+  <si>
+    <t>Ciénaga de Ayapel, biodiversidad, recursos hídricos, ecosistema, sostenibilidad, turismo ecológico, agricultura, ganadería, pesca artesanal, degradación ambiental, educación, condiciones sociales, conservación, desarrollo sostenible, Córdoba, Banco de la República, población, cultivos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,15 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -262,12 +250,6 @@
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -579,15 +561,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -595,10 +568,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,26 +602,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,199 +893,197 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2009</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="7"/>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1262,27 +1248,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0086/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0086/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0086/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2B323ED8-93BA-492C-8DC1-02B54A2DFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705544A1-F85B-44E8-999A-0003960AA490}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2B323ED8-93BA-492C-8DC1-02B54A2DFD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F586A88-0CA8-4BB7-83D8-0B2EB7D2B6C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>DTSER-112</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0086/02_PRODUCTOS/BANCO DE LA REPÚBLICA\DTSER-112.pdf</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0086/02_PRODUCTOS/BANCO DE LA REPÚBLICA/DTSER-112.pdf</t>
   </si>
   <si>
     <t>Banco de la República – Sucursal Cartagena</t>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +257,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -893,10 +913,10 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -969,7 +989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,16 +1029,16 @@
       <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="3" t="s">
